--- a/Docs/Testing (TES)/TS_head_foot.xlsx
+++ b/Docs/Testing (TES)/TS_head_foot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="19440" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="15600" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>тестирование на вид логотипа</t>
   </si>
   <si>
-    <t>1. заходим на любую страницу сайта www.vashchenko.com</t>
-  </si>
-  <si>
     <t>тестироваие на содержание элементов меню сайта</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>TS_menu_001</t>
+  </si>
+  <si>
+    <t>1. открываем браузер                                                   2. набираем в адрессной строке браузера "www.vashchenko.com" или "www.vashchenko.com/…" нажимаем кнопку перехода на этот сайт</t>
   </si>
 </sst>
 </file>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="J26:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -604,13 +604,13 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -627,60 +627,60 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -688,7 +688,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -697,63 +697,63 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -796,7 +796,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
